--- a/nads_0.xlsx
+++ b/nads_0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\RPSc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0C0631-406F-4290-BF87-4ECD48440334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B10574-BA85-4C36-AA2C-3934C5DC8287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nads_0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>main_sdg_interest</t>
   </si>
   <si>
-    <t>other_interests</t>
-  </si>
-  <si>
     <t>has_watched</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Good Health and Well-being</t>
   </si>
   <si>
-    <t>Quality Education and Clean Water and Sanitation</t>
-  </si>
-  <si>
     <t>carrotKapichi</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Quality Education</t>
   </si>
   <si>
-    <t>Gender Equality and Partnerships for the Goals</t>
-  </si>
-  <si>
     <t>Harry Potter</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>bananaAso</t>
   </si>
   <si>
-    <t>Gender Equality and Reduced Inequalities</t>
-  </si>
-  <si>
     <t>The provision of quality education to all, in Nigeria, and Africa at large, Mathematics education, and provision of equal opportunities to women</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>Arlo Parks</t>
   </si>
   <si>
-    <t>Sustainable Cities and Communities and Gender Equality</t>
-  </si>
-  <si>
     <t>Black mirror</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>elephantTembo</t>
   </si>
   <si>
-    <t>Zero Hunger and Quality Education</t>
-  </si>
-  <si>
     <t>HaakÃ¶ Bantara</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>Carrie Underwood</t>
   </si>
   <si>
-    <t>Zero Hunger and Climate Action</t>
-  </si>
-  <si>
     <t>Shang-Chi and the Legend of the Ten Rings</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t>Gender Equality</t>
   </si>
   <si>
-    <t>Peace, Justice and Strong Institutions and Sustainable Cities and Communities</t>
-  </si>
-  <si>
     <t>Stateless (movie).</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>Gramps Morgan</t>
   </si>
   <si>
-    <t>Quality Education and Decent Work and Economic Growth</t>
-  </si>
-  <si>
     <t>12 ANGRY MEN</t>
   </si>
   <si>
@@ -181,9 +154,6 @@
     <t>Climate Action</t>
   </si>
   <si>
-    <t>Life Below Water and No Poverty</t>
-  </si>
-  <si>
     <t>As  the Crow Flies</t>
   </si>
   <si>
@@ -202,9 +172,6 @@
     <t>Decent Work and Economic Growth</t>
   </si>
   <si>
-    <t>Good Health and Well-being and Industry, Innovation and Infrastructure</t>
-  </si>
-  <si>
     <t>Poong, the Joseon Psychiatrist</t>
   </si>
   <si>
@@ -220,9 +187,6 @@
     <t>Kirk Franklin</t>
   </si>
   <si>
-    <t>Quality Education and Climate Action</t>
-  </si>
-  <si>
     <t>Ingokho</t>
   </si>
   <si>
@@ -232,9 +196,6 @@
     <t>lemurFotsy</t>
   </si>
   <si>
-    <t>Gender Equality and Life on Land</t>
-  </si>
-  <si>
     <t>Taking Root</t>
   </si>
   <si>
@@ -253,9 +214,6 @@
     <t>Industry, Innovation and Infrastructure</t>
   </si>
   <si>
-    <t>Quality Education and Partnerships for the Goals</t>
-  </si>
-  <si>
     <t>The boy who harnessed the wind</t>
   </si>
   <si>
@@ -271,9 +229,6 @@
     <t>No Poverty</t>
   </si>
   <si>
-    <t>Quality Education and Affordable and Clean Energy</t>
-  </si>
-  <si>
     <t>Gilmore Girls</t>
   </si>
   <si>
@@ -289,9 +244,6 @@
     <t>The Weeknd</t>
   </si>
   <si>
-    <t>Good Health and Well-being and Life on Land</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prison break </t>
   </si>
   <si>
@@ -307,9 +259,6 @@
     <t>Ed Sheeran</t>
   </si>
   <si>
-    <t>Reduced Inequalities and Sustainable Cities and Communities</t>
-  </si>
-  <si>
     <t>Designated survivor</t>
   </si>
   <si>
@@ -325,9 +274,6 @@
     <t>Winyo</t>
   </si>
   <si>
-    <t>Zero Hunger and Life on Land</t>
-  </si>
-  <si>
     <t>True Detective</t>
   </si>
   <si>
@@ -340,9 +286,6 @@
     <t>Nyashinski</t>
   </si>
   <si>
-    <t>Decent Work and Economic Growth and Zero Hunger</t>
-  </si>
-  <si>
     <t>Tomorrowland by Disney</t>
   </si>
   <si>
@@ -353,9 +296,6 @@
   </si>
   <si>
     <t>Abbey Ojomu</t>
-  </si>
-  <si>
-    <t>Quality Education and Reduced Inequalities</t>
   </si>
   <si>
     <t>Derry Girls!</t>
@@ -375,9 +315,6 @@
     <t>Stephen Marley</t>
   </si>
   <si>
-    <t>Clean Water and Sanitation and Climate Action</t>
-  </si>
-  <si>
     <t>the good doctor</t>
   </si>
   <si>
@@ -399,9 +336,6 @@
     <t>uragonflyLibliba</t>
   </si>
   <si>
-    <t>Reduced Inequality and Peace, Justice, and Strong Institutions</t>
-  </si>
-  <si>
     <t>Understanding our African History, Identity and Roots, and cultural bias in scientific research</t>
   </si>
   <si>
@@ -411,9 +345,6 @@
     <t>Selina Gomez</t>
   </si>
   <si>
-    <t>Sustainable Cities and Communities and Good Health and Well-being</t>
-  </si>
-  <si>
     <t>Insecure</t>
   </si>
   <si>
@@ -429,9 +360,6 @@
     <t>Sia</t>
   </si>
   <si>
-    <t>Decent Work and Economic Growth and Clean Water and Sanitation</t>
-  </si>
-  <si>
     <t>The Shawshank Redemption</t>
   </si>
   <si>
@@ -459,9 +387,6 @@
     <t>Bob Marley</t>
   </si>
   <si>
-    <t>Clean Water and Sanitation and Reduced Inequalities</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dexter </t>
   </si>
   <si>
@@ -477,19 +402,55 @@
     <t>FKJ</t>
   </si>
   <si>
-    <t>Quality Education and Industry, Innovation and Infrastructure</t>
-  </si>
-  <si>
     <t>Mucapata</t>
   </si>
   <si>
     <t>Culture, Health and Innovation withing Tech for Africans</t>
+  </si>
+  <si>
+    <t>sdg2</t>
+  </si>
+  <si>
+    <t>sdg3</t>
+  </si>
+  <si>
+    <t>Clean Water and Sanitation</t>
+  </si>
+  <si>
+    <t>Reduced Inequalities</t>
+  </si>
+  <si>
+    <t>Partnerships for the Goals</t>
+  </si>
+  <si>
+    <t>Reduced Inequality</t>
+  </si>
+  <si>
+    <t>Peace, Justice, and Strong Institutions</t>
+  </si>
+  <si>
+    <t>Zero Hunger</t>
+  </si>
+  <si>
+    <t>Sustainable Cities and Communities</t>
+  </si>
+  <si>
+    <t>Peace, Justice and Strong Institutions</t>
+  </si>
+  <si>
+    <t>Life Below Water</t>
+  </si>
+  <si>
+    <t>Life on Land</t>
+  </si>
+  <si>
+    <t>Affordable and Clean Energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1326,14 +1287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,637 +1307,721 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="H28" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
